--- a/Code/Results/Cases/Case_9_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013384426835965</v>
+        <v>1.012799711029547</v>
       </c>
       <c r="D2">
-        <v>1.030795672748609</v>
+        <v>1.029587896291256</v>
       </c>
       <c r="E2">
-        <v>1.027199591400133</v>
+        <v>1.026730851337362</v>
       </c>
       <c r="F2">
-        <v>1.036262485312011</v>
+        <v>1.035871164639827</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048761761285291</v>
+        <v>1.048259207130916</v>
       </c>
       <c r="J2">
-        <v>1.035172051028424</v>
+        <v>1.034604210430443</v>
       </c>
       <c r="K2">
-        <v>1.041842020037224</v>
+        <v>1.040649857882094</v>
       </c>
       <c r="L2">
-        <v>1.038292564682121</v>
+        <v>1.037829932332336</v>
       </c>
       <c r="M2">
-        <v>1.047238725599141</v>
+        <v>1.046852392546716</v>
       </c>
       <c r="N2">
-        <v>1.015561703053264</v>
+        <v>1.016329359663709</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045958652836023</v>
+        <v>1.045652898356985</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040656214756449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039822008342178</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022854584713909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016588734654166</v>
+        <v>1.015904514075443</v>
       </c>
       <c r="D3">
-        <v>1.032919261886438</v>
+        <v>1.03156636774518</v>
       </c>
       <c r="E3">
-        <v>1.029680969895763</v>
+        <v>1.029130595303375</v>
       </c>
       <c r="F3">
-        <v>1.038722949099512</v>
+        <v>1.038265871761399</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049450740683342</v>
+        <v>1.048878178896987</v>
       </c>
       <c r="J3">
-        <v>1.036637167239037</v>
+        <v>1.035970800100014</v>
       </c>
       <c r="K3">
-        <v>1.043147572541405</v>
+        <v>1.041810674602558</v>
       </c>
       <c r="L3">
-        <v>1.039947656007304</v>
+        <v>1.039403833406335</v>
       </c>
       <c r="M3">
-        <v>1.048883223431785</v>
+        <v>1.048431470263482</v>
       </c>
       <c r="N3">
-        <v>1.016058357266894</v>
+        <v>1.016697182071539</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047260151700855</v>
+        <v>1.046902622583057</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04157668976994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040639868817261</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023067621322933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018630400478344</v>
+        <v>1.017883324720449</v>
       </c>
       <c r="D4">
-        <v>1.034276227387171</v>
+        <v>1.032831212476045</v>
       </c>
       <c r="E4">
-        <v>1.031267734385202</v>
+        <v>1.030665746894834</v>
       </c>
       <c r="F4">
-        <v>1.040297299200901</v>
+        <v>1.039798660867888</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049882877997313</v>
+        <v>1.049265849985962</v>
       </c>
       <c r="J4">
-        <v>1.03756925350054</v>
+        <v>1.036840377854858</v>
       </c>
       <c r="K4">
-        <v>1.043977846510767</v>
+        <v>1.04254890554555</v>
       </c>
       <c r="L4">
-        <v>1.041002881600151</v>
+        <v>1.040407631878691</v>
       </c>
       <c r="M4">
-        <v>1.049932531968664</v>
+        <v>1.049439355594688</v>
       </c>
       <c r="N4">
-        <v>1.016374302415674</v>
+        <v>1.016931255901366</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048090600893735</v>
+        <v>1.047700288811544</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042164653580588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041162834326039</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023200860378729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019483917450912</v>
+        <v>1.018710670140232</v>
       </c>
       <c r="D5">
-        <v>1.034846651959336</v>
+        <v>1.033363232170635</v>
       </c>
       <c r="E5">
-        <v>1.031932595670346</v>
+        <v>1.03130910696986</v>
       </c>
       <c r="F5">
-        <v>1.040956768650562</v>
+        <v>1.040440820266822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05006327950239</v>
+        <v>1.049427692692065</v>
       </c>
       <c r="J5">
-        <v>1.037959904337342</v>
+        <v>1.03720494249025</v>
       </c>
       <c r="K5">
-        <v>1.044327414497793</v>
+        <v>1.042860064292246</v>
       </c>
       <c r="L5">
-        <v>1.041444979289569</v>
+        <v>1.040828284688739</v>
       </c>
       <c r="M5">
-        <v>1.050371932815878</v>
+        <v>1.049861487195911</v>
       </c>
       <c r="N5">
-        <v>1.016506951049599</v>
+        <v>1.017029580440531</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04843835350967</v>
+        <v>1.048034374301403</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042418972888548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041390707415273</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023256956695381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019629971698519</v>
+        <v>1.01885222846319</v>
       </c>
       <c r="D6">
-        <v>1.0349470326248</v>
+        <v>1.033457076721407</v>
       </c>
       <c r="E6">
-        <v>1.032046646779144</v>
+        <v>1.031419461990255</v>
       </c>
       <c r="F6">
-        <v>1.041069399728141</v>
+        <v>1.040550477090872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050095776288122</v>
+        <v>1.049457011783208</v>
       </c>
       <c r="J6">
-        <v>1.038028378502621</v>
+        <v>1.037268934259709</v>
       </c>
       <c r="K6">
-        <v>1.044390695497115</v>
+        <v>1.042916807315903</v>
       </c>
       <c r="L6">
-        <v>1.041521639914266</v>
+        <v>1.040901258463903</v>
       </c>
       <c r="M6">
-        <v>1.050447629726091</v>
+        <v>1.049934216526548</v>
       </c>
       <c r="N6">
-        <v>1.01653049027677</v>
+        <v>1.017047065104239</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048498261885989</v>
+        <v>1.048091934094504</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.0424724334997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041440414809219</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023267740226732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018650363570304</v>
+        <v>1.017908894564786</v>
       </c>
       <c r="D7">
-        <v>1.034296829877077</v>
+        <v>1.03285568698191</v>
       </c>
       <c r="E7">
-        <v>1.031283823935938</v>
+        <v>1.030686478470506</v>
       </c>
       <c r="F7">
-        <v>1.040311888924245</v>
+        <v>1.039816909093946</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049891729692935</v>
+        <v>1.049277362758249</v>
       </c>
       <c r="J7">
-        <v>1.037582809985351</v>
+        <v>1.036859396836804</v>
       </c>
       <c r="K7">
-        <v>1.043995351615947</v>
+        <v>1.042570233395502</v>
       </c>
       <c r="L7">
-        <v>1.041015911405727</v>
+        <v>1.040425249230617</v>
       </c>
       <c r="M7">
-        <v>1.049944115438392</v>
+        <v>1.049454555479645</v>
       </c>
       <c r="N7">
-        <v>1.016379690699639</v>
+        <v>1.016962730260948</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048099768338097</v>
+        <v>1.047712318382658</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042197077497659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041199961774608</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023206855428308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014484656430802</v>
+        <v>1.013884881374775</v>
       </c>
       <c r="D8">
-        <v>1.031532960400331</v>
+        <v>1.030289812648735</v>
       </c>
       <c r="E8">
-        <v>1.028051123510702</v>
+        <v>1.027570203755509</v>
       </c>
       <c r="F8">
-        <v>1.037104925200856</v>
+        <v>1.036703543920895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049005433768228</v>
+        <v>1.048488358830615</v>
       </c>
       <c r="J8">
-        <v>1.035680873459921</v>
+        <v>1.035097838852369</v>
       </c>
       <c r="K8">
-        <v>1.042302088668943</v>
+        <v>1.041074543788635</v>
       </c>
       <c r="L8">
-        <v>1.038864071417242</v>
+        <v>1.038389233268695</v>
       </c>
       <c r="M8">
-        <v>1.047804691377658</v>
+        <v>1.047408275626753</v>
       </c>
       <c r="N8">
-        <v>1.015735215600728</v>
+        <v>1.016541228812202</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046406573307735</v>
+        <v>1.046092839296426</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041004356930694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040147401594982</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022936654212785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006878537358236</v>
+        <v>1.006521271029726</v>
       </c>
       <c r="D9">
-        <v>1.026506942827158</v>
+        <v>1.025612411313238</v>
       </c>
       <c r="E9">
-        <v>1.022193997677597</v>
+        <v>1.021911742290232</v>
       </c>
       <c r="F9">
-        <v>1.031304281785849</v>
+        <v>1.03106300023647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047326908361257</v>
+        <v>1.04697829544364</v>
       </c>
       <c r="J9">
-        <v>1.032190713289054</v>
+        <v>1.03184582956964</v>
       </c>
       <c r="K9">
-        <v>1.039184119222502</v>
+        <v>1.038303176295389</v>
       </c>
       <c r="L9">
-        <v>1.034936970405846</v>
+        <v>1.034659045685207</v>
       </c>
       <c r="M9">
-        <v>1.043909094991334</v>
+        <v>1.043671432470678</v>
       </c>
       <c r="N9">
-        <v>1.014551150386797</v>
+        <v>1.015674835057467</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043323488477236</v>
+        <v>1.043135395235669</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038796596449319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038184425752515</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022414027276823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001676492032448</v>
+        <v>1.001514854266832</v>
       </c>
       <c r="D10">
-        <v>1.023102171704483</v>
+        <v>1.022467230401055</v>
       </c>
       <c r="E10">
-        <v>1.01825465970656</v>
+        <v>1.018132445608221</v>
       </c>
       <c r="F10">
-        <v>1.027455600628959</v>
+        <v>1.027343146466623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046164154955981</v>
+        <v>1.045944320491397</v>
       </c>
       <c r="J10">
-        <v>1.029823751779439</v>
+        <v>1.029668498194607</v>
       </c>
       <c r="K10">
-        <v>1.037066471933846</v>
+        <v>1.036442344552677</v>
       </c>
       <c r="L10">
-        <v>1.032301961377305</v>
+        <v>1.032181853096442</v>
       </c>
       <c r="M10">
-        <v>1.041346220240312</v>
+        <v>1.041235659201578</v>
       </c>
       <c r="N10">
-        <v>1.013751817802559</v>
+        <v>1.015207715957572</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041346410010424</v>
+        <v>1.041258913876121</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037316065139366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036887154709747</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022058410349313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9997796653923418</v>
+        <v>0.9997207326571104</v>
       </c>
       <c r="D11">
-        <v>1.021931369178758</v>
+        <v>1.021409153793624</v>
       </c>
       <c r="E11">
-        <v>1.01709479772853</v>
+        <v>1.01705586199506</v>
       </c>
       <c r="F11">
-        <v>1.026705766896654</v>
+        <v>1.026660398061849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045880506865629</v>
+        <v>1.045720159322711</v>
       </c>
       <c r="J11">
-        <v>1.029161613415519</v>
+        <v>1.029105134094123</v>
       </c>
       <c r="K11">
-        <v>1.036451213825916</v>
+        <v>1.035938311771382</v>
       </c>
       <c r="L11">
-        <v>1.031701374748008</v>
+        <v>1.031663141585242</v>
       </c>
       <c r="M11">
-        <v>1.041141033079716</v>
+        <v>1.041096463154695</v>
       </c>
       <c r="N11">
-        <v>1.013558078700313</v>
+        <v>1.015305559714225</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041618660597843</v>
+        <v>1.04158340633033</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036913812864037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036566759050276</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021995125903074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9992130965625631</v>
+        <v>0.9991853176687668</v>
       </c>
       <c r="D12">
-        <v>1.021604936978803</v>
+        <v>1.021114079318887</v>
       </c>
       <c r="E12">
-        <v>1.016866506137754</v>
+        <v>1.016852111832692</v>
       </c>
       <c r="F12">
-        <v>1.026764701716538</v>
+        <v>1.026739296979482</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045857040494876</v>
+        <v>1.045713083666721</v>
       </c>
       <c r="J12">
-        <v>1.029050796932535</v>
+        <v>1.029024196378482</v>
       </c>
       <c r="K12">
-        <v>1.036329604521613</v>
+        <v>1.035847646300797</v>
       </c>
       <c r="L12">
-        <v>1.031677550642313</v>
+        <v>1.031663420328705</v>
       </c>
       <c r="M12">
-        <v>1.041396489308299</v>
+        <v>1.041371538907319</v>
       </c>
       <c r="N12">
-        <v>1.013544373876284</v>
+        <v>1.015401885634984</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04214597644773</v>
+        <v>1.042126247618527</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036827831573109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036502657223847</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022000978335539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996425371531623</v>
+        <v>0.99958356075926</v>
       </c>
       <c r="D13">
-        <v>1.021920769238784</v>
+        <v>1.021393534788942</v>
       </c>
       <c r="E13">
-        <v>1.017350059997314</v>
+        <v>1.017309110683234</v>
       </c>
       <c r="F13">
-        <v>1.027468620727451</v>
+        <v>1.027422285921613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046043882689818</v>
+        <v>1.045879713268593</v>
       </c>
       <c r="J13">
-        <v>1.02936935674731</v>
+        <v>1.029312869952982</v>
       </c>
       <c r="K13">
-        <v>1.036597050407454</v>
+        <v>1.036079335778765</v>
       </c>
       <c r="L13">
-        <v>1.032109297537079</v>
+        <v>1.032069095820851</v>
       </c>
       <c r="M13">
-        <v>1.042045497812489</v>
+        <v>1.041999987444509</v>
       </c>
       <c r="N13">
-        <v>1.013673602477682</v>
+        <v>1.015471943312133</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042934914467505</v>
+        <v>1.042898937408699</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037014437510728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036663736519047</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022064623545542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000394975830872</v>
+        <v>1.000286379731779</v>
       </c>
       <c r="D14">
-        <v>1.022434643454848</v>
+        <v>1.021851673189857</v>
       </c>
       <c r="E14">
-        <v>1.018010194350476</v>
+        <v>1.017928017076411</v>
       </c>
       <c r="F14">
-        <v>1.0282522858387</v>
+        <v>1.028173180604975</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046270171395328</v>
+        <v>1.046075623312658</v>
       </c>
       <c r="J14">
-        <v>1.029786963160165</v>
+        <v>1.029682886860618</v>
       </c>
       <c r="K14">
-        <v>1.036961955282303</v>
+        <v>1.036389382927025</v>
       </c>
       <c r="L14">
-        <v>1.032616808118585</v>
+        <v>1.032536112231272</v>
       </c>
       <c r="M14">
-        <v>1.042676670742592</v>
+        <v>1.042598954931596</v>
       </c>
       <c r="N14">
-        <v>1.013828970665639</v>
+        <v>1.015510393859357</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04360665952598</v>
+        <v>1.043545231529551</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03727385671915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036884504013227</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022135959328418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000799578228844</v>
+        <v>1.000665780962092</v>
       </c>
       <c r="D15">
-        <v>1.022705686385192</v>
+        <v>1.022094620020519</v>
       </c>
       <c r="E15">
-        <v>1.018334420899039</v>
+        <v>1.018231514298617</v>
       </c>
       <c r="F15">
-        <v>1.028598923946302</v>
+        <v>1.028503280837034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046375148078601</v>
+        <v>1.046165467144795</v>
       </c>
       <c r="J15">
-        <v>1.029988243808305</v>
+        <v>1.029859967465095</v>
       </c>
       <c r="K15">
-        <v>1.037142121853196</v>
+        <v>1.036541873127002</v>
       </c>
       <c r="L15">
-        <v>1.032848611468804</v>
+        <v>1.032747545794109</v>
       </c>
       <c r="M15">
-        <v>1.042931886302157</v>
+        <v>1.042837910231765</v>
       </c>
       <c r="N15">
-        <v>1.013900270473136</v>
+        <v>1.015518713886788</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043845816093164</v>
+        <v>1.043771537638948</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037407094801503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036998743374304</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022167997189759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002914476552246</v>
+        <v>1.002662259163985</v>
       </c>
       <c r="D16">
-        <v>1.024084135192335</v>
+        <v>1.023339022033007</v>
       </c>
       <c r="E16">
-        <v>1.019910402046946</v>
+        <v>1.01971096906216</v>
       </c>
       <c r="F16">
-        <v>1.030121795861117</v>
+        <v>1.029948837407075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046844184304489</v>
+        <v>1.046563837949732</v>
       </c>
       <c r="J16">
-        <v>1.030936519662944</v>
+        <v>1.030694198803987</v>
       </c>
       <c r="K16">
-        <v>1.03799630306135</v>
+        <v>1.037263813582288</v>
       </c>
       <c r="L16">
-        <v>1.03389358827708</v>
+        <v>1.033697567558387</v>
       </c>
       <c r="M16">
-        <v>1.043932541573978</v>
+        <v>1.043762467206391</v>
       </c>
       <c r="N16">
-        <v>1.01421667519493</v>
+        <v>1.015534033730501</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044598124550066</v>
+        <v>1.044463694386111</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038014188123955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037512638378218</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022302857670309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004145531235423</v>
+        <v>1.003835419617496</v>
       </c>
       <c r="D17">
-        <v>1.024875237045751</v>
+        <v>1.024061637343773</v>
       </c>
       <c r="E17">
-        <v>1.020775563451034</v>
+        <v>1.020529239631672</v>
       </c>
       <c r="F17">
-        <v>1.030875957495028</v>
+        <v>1.030665269025384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047083894903181</v>
+        <v>1.046768477501384</v>
       </c>
       <c r="J17">
-        <v>1.031445329659681</v>
+        <v>1.031147002024482</v>
       </c>
       <c r="K17">
-        <v>1.038460731587394</v>
+        <v>1.037660534012347</v>
       </c>
       <c r="L17">
-        <v>1.034428870366775</v>
+        <v>1.034186643316747</v>
       </c>
       <c r="M17">
-        <v>1.044363443451322</v>
+        <v>1.044156171289766</v>
       </c>
       <c r="N17">
-        <v>1.014377949527437</v>
+        <v>1.015554210193271</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044810064784199</v>
+        <v>1.044646216516605</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038345137112852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037795963510504</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022369779601984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004719564359017</v>
+        <v>1.004389977961921</v>
       </c>
       <c r="D18">
-        <v>1.025218044507153</v>
+        <v>1.024380249390982</v>
       </c>
       <c r="E18">
-        <v>1.021082252381566</v>
+        <v>1.020820587700688</v>
       </c>
       <c r="F18">
-        <v>1.030989047333603</v>
+        <v>1.030765760482421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047138044426454</v>
+        <v>1.046811057147914</v>
       </c>
       <c r="J18">
-        <v>1.031605450340197</v>
+        <v>1.031288156978593</v>
       </c>
       <c r="K18">
-        <v>1.03861523045327</v>
+        <v>1.037791011943945</v>
       </c>
       <c r="L18">
-        <v>1.03454673776382</v>
+        <v>1.034289354584814</v>
       </c>
       <c r="M18">
-        <v>1.044293481656478</v>
+        <v>1.044073758715315</v>
       </c>
       <c r="N18">
-        <v>1.01441365813883</v>
+        <v>1.015538038560591</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044517848115783</v>
+        <v>1.044344121553239</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038442768808063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037875475924682</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022377747384722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004708249896922</v>
+        <v>1.004388226284071</v>
       </c>
       <c r="D19">
-        <v>1.025172406450147</v>
+        <v>1.024346163996703</v>
       </c>
       <c r="E19">
-        <v>1.020886436215267</v>
+        <v>1.020633259195427</v>
       </c>
       <c r="F19">
-        <v>1.030519382808017</v>
+        <v>1.030302509565684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047034570478171</v>
+        <v>1.046714407045502</v>
       </c>
       <c r="J19">
-        <v>1.031460963166493</v>
+        <v>1.031152806412199</v>
       </c>
       <c r="K19">
-        <v>1.038508039066254</v>
+        <v>1.037695115961571</v>
       </c>
       <c r="L19">
-        <v>1.03429146113287</v>
+        <v>1.034042406614838</v>
       </c>
       <c r="M19">
-        <v>1.043769481632727</v>
+        <v>1.043556055506622</v>
       </c>
       <c r="N19">
-        <v>1.014342371549691</v>
+        <v>1.015474029926691</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043779190510566</v>
+        <v>1.043610387843972</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038373358518363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037814676801937</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022337740944904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003044874193953</v>
+        <v>1.002813691022522</v>
       </c>
       <c r="D20">
-        <v>1.024014158368043</v>
+        <v>1.023297631215625</v>
       </c>
       <c r="E20">
-        <v>1.019291889786431</v>
+        <v>1.019112537910479</v>
       </c>
       <c r="F20">
-        <v>1.028467725612011</v>
+        <v>1.028309477496383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046484515952458</v>
+        <v>1.046221832995633</v>
       </c>
       <c r="J20">
-        <v>1.030458923543535</v>
+        <v>1.03023657882324</v>
       </c>
       <c r="K20">
-        <v>1.037647493779119</v>
+        <v>1.03694282744494</v>
       </c>
       <c r="L20">
-        <v>1.033003789767418</v>
+        <v>1.032827440272808</v>
       </c>
       <c r="M20">
-        <v>1.042027816598838</v>
+        <v>1.041872157094774</v>
       </c>
       <c r="N20">
-        <v>1.013968783522642</v>
+        <v>1.015263994357581</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041875307037552</v>
+        <v>1.041752119262079</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037768830623299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037287079722522</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022157224177147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9990734124027703</v>
+        <v>0.9990802778976753</v>
       </c>
       <c r="D21">
-        <v>1.021408002535447</v>
+        <v>1.020957285189147</v>
       </c>
       <c r="E21">
-        <v>1.016244185672422</v>
+        <v>1.016260934498481</v>
       </c>
       <c r="F21">
-        <v>1.025417886697058</v>
+        <v>1.025416534736346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045555476554432</v>
+        <v>1.045435699418018</v>
       </c>
       <c r="J21">
-        <v>1.028609925010835</v>
+        <v>1.028616502706597</v>
       </c>
       <c r="K21">
-        <v>1.035994835753829</v>
+        <v>1.035552203392503</v>
       </c>
       <c r="L21">
-        <v>1.030924206528259</v>
+        <v>1.030940651108887</v>
       </c>
       <c r="M21">
-        <v>1.039933196442866</v>
+        <v>1.039931868474484</v>
       </c>
       <c r="N21">
-        <v>1.013338760179763</v>
+        <v>1.015241051544085</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040176836791048</v>
+        <v>1.040175785792639</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036603559700077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036307402844568</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0218887040881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9965495014700939</v>
+        <v>0.9967066956033245</v>
       </c>
       <c r="D22">
-        <v>1.019753898766428</v>
+        <v>1.019471152193004</v>
       </c>
       <c r="E22">
-        <v>1.014330886998227</v>
+        <v>1.014471569753038</v>
       </c>
       <c r="F22">
-        <v>1.023529696229393</v>
+        <v>1.023627625629962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044962801130749</v>
+        <v>1.044933376173216</v>
       </c>
       <c r="J22">
-        <v>1.027441890920738</v>
+        <v>1.027592118659224</v>
       </c>
       <c r="K22">
-        <v>1.03494392801839</v>
+        <v>1.034666504780156</v>
       </c>
       <c r="L22">
-        <v>1.029623693521671</v>
+        <v>1.029761691884362</v>
       </c>
       <c r="M22">
-        <v>1.038649005468244</v>
+        <v>1.038745109725336</v>
       </c>
       <c r="N22">
-        <v>1.012941477525573</v>
+        <v>1.015221043595036</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039160484562928</v>
+        <v>1.039236544776474</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035847050011157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035666401050052</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021715967436219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978836695507823</v>
+        <v>0.997951252594513</v>
       </c>
       <c r="D23">
-        <v>1.02062142001051</v>
+        <v>1.020242077210788</v>
       </c>
       <c r="E23">
-        <v>1.015340857151575</v>
+        <v>1.015407538952295</v>
       </c>
       <c r="F23">
-        <v>1.024527565107547</v>
+        <v>1.024566275597335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045272750657477</v>
+        <v>1.045190436348542</v>
       </c>
       <c r="J23">
-        <v>1.028055480397643</v>
+        <v>1.028120154669478</v>
       </c>
       <c r="K23">
-        <v>1.035491523161317</v>
+        <v>1.035119143104707</v>
       </c>
       <c r="L23">
-        <v>1.030308494055236</v>
+        <v>1.030373935971286</v>
       </c>
       <c r="M23">
-        <v>1.03932636208865</v>
+        <v>1.03936436946314</v>
       </c>
       <c r="N23">
-        <v>1.013149317580992</v>
+        <v>1.015187617065398</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039696567711016</v>
+        <v>1.039726648032553</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036224609560075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035975879795268</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021802217717462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003059571533765</v>
+        <v>1.002828729473213</v>
       </c>
       <c r="D24">
-        <v>1.024008088920108</v>
+        <v>1.023291878377838</v>
       </c>
       <c r="E24">
-        <v>1.01927567385859</v>
+        <v>1.019096702237178</v>
       </c>
       <c r="F24">
-        <v>1.028415707319651</v>
+        <v>1.028257716236603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046467723362418</v>
+        <v>1.046205386523696</v>
       </c>
       <c r="J24">
-        <v>1.030440352323315</v>
+        <v>1.030218322918786</v>
       </c>
       <c r="K24">
-        <v>1.037626317024459</v>
+        <v>1.036921947053719</v>
       </c>
       <c r="L24">
-        <v>1.032972536670585</v>
+        <v>1.032796557344717</v>
       </c>
       <c r="M24">
-        <v>1.041961534183983</v>
+        <v>1.041806124537793</v>
       </c>
       <c r="N24">
-        <v>1.013958585087226</v>
+        <v>1.015252255050084</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041782129050986</v>
+        <v>1.041659132943765</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037726522179091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037242306671069</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022148227976299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008889627369619</v>
+        <v>1.008459801740255</v>
       </c>
       <c r="D25">
-        <v>1.027843065490696</v>
+        <v>1.026850308919549</v>
       </c>
       <c r="E25">
-        <v>1.02373804806608</v>
+        <v>1.023396312943647</v>
       </c>
       <c r="F25">
-        <v>1.032830344589645</v>
+        <v>1.032541214625271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047783837338271</v>
+        <v>1.047386644346054</v>
       </c>
       <c r="J25">
-        <v>1.033121479537143</v>
+        <v>1.032705775845603</v>
       </c>
       <c r="K25">
-        <v>1.040023999813195</v>
+        <v>1.039045631708886</v>
       </c>
       <c r="L25">
-        <v>1.035978707760844</v>
+        <v>1.035641972081926</v>
       </c>
       <c r="M25">
-        <v>1.044939525801975</v>
+        <v>1.044654531656231</v>
       </c>
       <c r="N25">
-        <v>1.014868289401743</v>
+        <v>1.015874717018781</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044139001741166</v>
+        <v>1.043913449079488</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03941894514478</v>
+        <v>1.038740695950632</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022557734088929</v>
       </c>
     </row>
   </sheetData>
